--- a/EtemadShahidi_paper_02_severn.xlsx
+++ b/EtemadShahidi_paper_02_severn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="63900" windowWidth="14805" windowHeight="7335" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="63900" windowWidth="14805" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="Setting" sheetId="8" r:id="rId1"/>
@@ -4688,7 +4688,7 @@
   </sheetPr>
   <dimension ref="A1:X91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -4731,7 +4731,7 @@
       </c>
       <c r="B2" s="48" t="str">
         <f ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
-        <v>EtemadShahidi_paper_02_severn.xlsx</v>
+        <v>watum_development_mode.xlsx</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -7092,7 +7092,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7136,7 +7136,7 @@
     <col min="43" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="66" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" s="66" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>40</v>
       </c>
@@ -8729,7 +8729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I7"/>
     </sheetView>
   </sheetViews>
